--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2873715.19911505</v>
+        <v>2871338.572167684</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>337.7433820845376</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>120.2145230749714</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>39.15797524740199</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>134.2800770981729</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>122.3658679214311</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>115.653228379492</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.24924571897591</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>42.22393473453182</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>41.00930247648498</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>300.2260400206189</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.16463037378273</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>230.7871511611226</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994719</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.600826611594925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1975.31341879663</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C2" t="n">
-        <v>1975.31341879663</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4364,16 +4364,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.31341879663</v>
+        <v>1522.82172026622</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4413,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>662.3527266874014</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114678</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772.8067472977393</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C4" t="n">
-        <v>603.8705643698324</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>453.7539249574967</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4513,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1398.226272076774</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1175.247791271509</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1175.247791271509</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1175.247791271509</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1175.247791271509</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>1175.247791271509</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.4552121279791</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.715325395395</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="C5" t="n">
-        <v>1042.715325395395</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="D5" t="n">
-        <v>1042.715325395395</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="E5" t="n">
-        <v>656.9270727971502</v>
+        <v>479.072874127204</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>472.1273733780005</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872912</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656474</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1042.715325395395</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1042.715325395395</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.1529317523638</v>
+        <v>359.629293016243</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>359.629293016243</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>209.5126536039072</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1294.583526624151</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>1294.583526624151</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="X7" t="n">
-        <v>1066.593975726134</v>
+        <v>762.0703369900128</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.8013965826035</v>
+        <v>541.2777578464827</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.507785786471</v>
+        <v>904.8820361188227</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.545268846059</v>
+        <v>535.9195191784111</v>
       </c>
       <c r="D8" t="n">
-        <v>1151.279570239308</v>
+        <v>177.6538205716606</v>
       </c>
       <c r="E8" t="n">
-        <v>765.4913176410641</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>354.5054128514566</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182944</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145198</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>101.9181303799049</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>101.9181303799049</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>101.9181303799049</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>101.9181303799049</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>101.9181303799049</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1403.327785568313</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1148.643297362426</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>732.348725251692</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>504.3591743536747</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>283.5665952101446</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5130,16 +5130,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5285,16 +5285,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
@@ -5759,16 +5759,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6953,16 +6953,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7254,13 +7254,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7646,13 +7646,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7728,13 +7728,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70.03064962107925</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>21.18099370047537</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868065</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>211.9838267404999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.808416965156</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.0443633788</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633788</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="E2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442557</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,40 +26424,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
         <v>6897.424496707383</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707384</v>
+        <v>6897.424496707392</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707378</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707349</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707326</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707349</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707341</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707362</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707376</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707386</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707374</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707381</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662239.8227093557</v>
+        <v>-662239.8227093555</v>
       </c>
       <c r="C6" t="n">
+        <v>452511.9608665642</v>
+      </c>
+      <c r="D6" t="n">
         <v>452511.9608665637</v>
       </c>
-      <c r="D6" t="n">
-        <v>452511.960866564</v>
-      </c>
       <c r="E6" t="n">
-        <v>50390.54879909467</v>
+        <v>50355.81087365904</v>
       </c>
       <c r="F6" t="n">
-        <v>557875.9904236404</v>
+        <v>557841.2524982048</v>
       </c>
       <c r="G6" t="n">
-        <v>557875.9904236402</v>
+        <v>557841.2524982047</v>
       </c>
       <c r="H6" t="n">
-        <v>557875.9904236406</v>
+        <v>557841.2524982047</v>
       </c>
       <c r="I6" t="n">
-        <v>557875.9904236404</v>
+        <v>557841.2524982055</v>
       </c>
       <c r="J6" t="n">
-        <v>390270.8126136577</v>
+        <v>390236.074688222</v>
       </c>
       <c r="K6" t="n">
-        <v>557875.9904236404</v>
+        <v>557841.2524982053</v>
       </c>
       <c r="L6" t="n">
-        <v>557875.9904236402</v>
+        <v>557841.2524982052</v>
       </c>
       <c r="M6" t="n">
-        <v>425268.6966947138</v>
+        <v>425233.9587692783</v>
       </c>
       <c r="N6" t="n">
-        <v>557875.9904236404</v>
+        <v>557841.2524982053</v>
       </c>
       <c r="O6" t="n">
-        <v>557875.9904236406</v>
+        <v>557841.2524982049</v>
       </c>
       <c r="P6" t="n">
-        <v>557875.9904236405</v>
+        <v>557841.2524982048</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>16.93965953614531</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>266.0234155810822</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>128.0888458512258</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60.38238326356458</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>284.5101778202803</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>295.8944743934619</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>94.54734948492467</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>209.9137085892962</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>340.9210675957768</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>111.3216627523351</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>116.1419696710215</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>55.44000296007798</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28330,19 +28330,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.8861049150245</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984174</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34781,25 +34781,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>367.7110102589294</v>
       </c>
       <c r="M3" t="n">
+        <v>366.9313322820405</v>
+      </c>
+      <c r="N3" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="N3" t="n">
-        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>270.8605228240077</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065825</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>505.5216991696271</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316912</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38096,16 +38096,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
